--- a/biology/Zoologie/Cervini/Cervini.xlsx
+++ b/biology/Zoologie/Cervini/Cervini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cervini sont une tribu de mammifères de la sous-famille des Cervinae.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib :
 genre Axis Smith, 1827
 genre Cervus Linné, 1758
 genre Dama Frisch, 1775
 genre Elaphurus Milne-Edwards, 1866
 genre Hyelaphus Sundevall, 1846 - Hog Deer
-genre Panolia Gray, 1843[2]
+genre Panolia Gray, 1843
 genre Rucervus Hodgson, 1838
 genre Rusa Smith, 1827</t>
         </is>
@@ -549,7 +563,9 @@
           <t>Taxons fossiles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>genre Candiacervus Kuss, 1975 †
 genre Eucladoceros Falconer, 1868 † (Tertiaire : Pliocène moyen ; Quaternaire : Chibanien)
@@ -590,9 +606,11 @@
           <t>Cladogramme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme suivant est basé sur l'étude Gilbert et al. 2006[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant est basé sur l'étude Gilbert et al. 2006.
 </t>
         </is>
       </c>
